--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.46058246642358</v>
+        <v>2.0373175</v>
       </c>
       <c r="N2">
-        <v>1.46058246642358</v>
+        <v>4.074635</v>
       </c>
       <c r="O2">
-        <v>0.1454457116119657</v>
+        <v>0.1778084280540766</v>
       </c>
       <c r="P2">
-        <v>0.1454457116119657</v>
+        <v>0.1340467055293281</v>
       </c>
       <c r="Q2">
-        <v>284.5686050266313</v>
+        <v>397.4383464827237</v>
       </c>
       <c r="R2">
-        <v>284.5686050266313</v>
+        <v>1589.753385930895</v>
       </c>
       <c r="S2">
-        <v>0.03896310360399659</v>
+        <v>0.04695219171536449</v>
       </c>
       <c r="T2">
-        <v>0.03896310360399659</v>
+        <v>0.02657216239526324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.64236900212878</v>
+        <v>0.09454</v>
       </c>
       <c r="N3">
-        <v>1.64236900212878</v>
+        <v>0.28362</v>
       </c>
       <c r="O3">
-        <v>0.1635481280485115</v>
+        <v>0.008251050112823554</v>
       </c>
       <c r="P3">
-        <v>0.1635481280485115</v>
+        <v>0.009330486441663618</v>
       </c>
       <c r="Q3">
-        <v>319.9864893758265</v>
+        <v>18.44279120779</v>
       </c>
       <c r="R3">
-        <v>319.9864893758265</v>
+        <v>110.65674724674</v>
       </c>
       <c r="S3">
-        <v>0.04381251662059734</v>
+        <v>0.002178776849838358</v>
       </c>
       <c r="T3">
-        <v>0.04381251662059734</v>
+        <v>0.001849588171344074</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H4">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I4">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J4">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.40399773940331</v>
+        <v>1.802966333333333</v>
       </c>
       <c r="N4">
-        <v>4.40399773940331</v>
+        <v>5.408899</v>
       </c>
       <c r="O4">
-        <v>0.4385528375631207</v>
+        <v>0.1573552524652747</v>
       </c>
       <c r="P4">
-        <v>0.4385528375631207</v>
+        <v>0.1779411141098227</v>
       </c>
       <c r="Q4">
-        <v>858.0408994715322</v>
+        <v>351.7212993478038</v>
       </c>
       <c r="R4">
-        <v>858.0408994715322</v>
+        <v>2110.327796086823</v>
       </c>
       <c r="S4">
-        <v>0.1174828701129804</v>
+        <v>0.04155131487311842</v>
       </c>
       <c r="T4">
-        <v>0.1174828701129804</v>
+        <v>0.03527337850079258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H5">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I5">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J5">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.854614622392657</v>
+        <v>4.60014</v>
       </c>
       <c r="N5">
-        <v>0.854614622392657</v>
+        <v>13.80042</v>
       </c>
       <c r="O5">
-        <v>0.08510305632536833</v>
+        <v>0.4014807030463734</v>
       </c>
       <c r="P5">
-        <v>0.08510305632536833</v>
+        <v>0.4540040607124442</v>
       </c>
       <c r="Q5">
-        <v>166.5065112859645</v>
+        <v>897.3918081933899</v>
       </c>
       <c r="R5">
-        <v>166.5065112859645</v>
+        <v>5384.35084916034</v>
       </c>
       <c r="S5">
-        <v>0.02279805409092096</v>
+        <v>0.1060152161837891</v>
       </c>
       <c r="T5">
-        <v>0.02279805409092096</v>
+        <v>0.08999750931380079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H6">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I6">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J6">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.68055051070743</v>
+        <v>0.9836116666666669</v>
       </c>
       <c r="N6">
-        <v>1.68055051070743</v>
+        <v>2.950835000000001</v>
       </c>
       <c r="O6">
-        <v>0.1673502664510339</v>
+        <v>0.08584545328141067</v>
       </c>
       <c r="P6">
-        <v>0.1673502664510339</v>
+        <v>0.09707610873382155</v>
       </c>
       <c r="Q6">
-        <v>327.4254795621483</v>
+        <v>191.8822149130492</v>
       </c>
       <c r="R6">
-        <v>327.4254795621483</v>
+        <v>1151.293289478295</v>
       </c>
       <c r="S6">
-        <v>0.04483106237799614</v>
+        <v>0.02266839780584153</v>
       </c>
       <c r="T6">
-        <v>0.04483106237799614</v>
+        <v>0.01924345783649986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H7">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I7">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J7">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.46058246642358</v>
+        <v>1.93936</v>
       </c>
       <c r="N7">
-        <v>1.46058246642358</v>
+        <v>3.87872</v>
       </c>
       <c r="O7">
-        <v>0.1454457116119657</v>
+        <v>0.1692591130400411</v>
       </c>
       <c r="P7">
-        <v>0.1454457116119657</v>
+        <v>0.1276015244729198</v>
       </c>
       <c r="Q7">
-        <v>85.88663920226975</v>
+        <v>378.32887197736</v>
       </c>
       <c r="R7">
-        <v>85.88663920226975</v>
+        <v>1513.31548790944</v>
       </c>
       <c r="S7">
-        <v>0.01175958964666513</v>
+        <v>0.04469465487098073</v>
       </c>
       <c r="T7">
-        <v>0.01175958964666513</v>
+        <v>0.02529453011760696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H8">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J8">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.64236900212878</v>
+        <v>2.0373175</v>
       </c>
       <c r="N8">
-        <v>1.64236900212878</v>
+        <v>4.074635</v>
       </c>
       <c r="O8">
-        <v>0.1635481280485115</v>
+        <v>0.1778084280540766</v>
       </c>
       <c r="P8">
-        <v>0.1635481280485115</v>
+        <v>0.1340467055293281</v>
       </c>
       <c r="Q8">
-        <v>96.57623391045045</v>
+        <v>127.1447523083408</v>
       </c>
       <c r="R8">
-        <v>96.57623391045045</v>
+        <v>762.868513850045</v>
       </c>
       <c r="S8">
-        <v>0.01322320783483666</v>
+        <v>0.01502050529048094</v>
       </c>
       <c r="T8">
-        <v>0.01322320783483666</v>
+        <v>0.01275107586852951</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H9">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J9">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.40399773940331</v>
+        <v>0.09454</v>
       </c>
       <c r="N9">
-        <v>4.40399773940331</v>
+        <v>0.28362</v>
       </c>
       <c r="O9">
-        <v>0.4385528375631207</v>
+        <v>0.008251050112823554</v>
       </c>
       <c r="P9">
-        <v>0.4385528375631207</v>
+        <v>0.009330486441663618</v>
       </c>
       <c r="Q9">
-        <v>258.9683044860336</v>
+        <v>5.900044977393334</v>
       </c>
       <c r="R9">
-        <v>258.9683044860336</v>
+        <v>53.10040479654</v>
       </c>
       <c r="S9">
-        <v>0.03545791313450187</v>
+        <v>0.0006970138773961685</v>
       </c>
       <c r="T9">
-        <v>0.03545791313450187</v>
+        <v>0.0008875543791854585</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H10">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J10">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.854614622392657</v>
+        <v>1.802966333333333</v>
       </c>
       <c r="N10">
-        <v>0.854614622392657</v>
+        <v>5.408899</v>
       </c>
       <c r="O10">
-        <v>0.08510305632536833</v>
+        <v>0.1573552524652747</v>
       </c>
       <c r="P10">
-        <v>0.08510305632536833</v>
+        <v>0.1779411141098227</v>
       </c>
       <c r="Q10">
-        <v>50.25390857261981</v>
+        <v>112.5193829002814</v>
       </c>
       <c r="R10">
-        <v>50.25390857261981</v>
+        <v>1012.674446102533</v>
       </c>
       <c r="S10">
-        <v>0.006880759899840373</v>
+        <v>0.01329270737054601</v>
       </c>
       <c r="T10">
-        <v>0.006880759899840373</v>
+        <v>0.01692649317404219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H11">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J11">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.68055051070743</v>
+        <v>4.60014</v>
       </c>
       <c r="N11">
-        <v>1.68055051070743</v>
+        <v>13.80042</v>
       </c>
       <c r="O11">
-        <v>0.1673502664510339</v>
+        <v>0.4014807030463734</v>
       </c>
       <c r="P11">
-        <v>0.1673502664510339</v>
+        <v>0.4540040607124442</v>
       </c>
       <c r="Q11">
-        <v>98.82142137975002</v>
+        <v>287.08517984246</v>
       </c>
       <c r="R11">
-        <v>98.82142137975002</v>
+        <v>2583.76661858214</v>
       </c>
       <c r="S11">
-        <v>0.01353061866804691</v>
+        <v>0.03391539473202042</v>
       </c>
       <c r="T11">
-        <v>0.01353061866804691</v>
+        <v>0.04318674002397075</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H12">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J12">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.46058246642358</v>
+        <v>0.9836116666666669</v>
       </c>
       <c r="N12">
-        <v>1.46058246642358</v>
+        <v>2.950835000000001</v>
       </c>
       <c r="O12">
-        <v>0.1454457116119657</v>
+        <v>0.08584545328141067</v>
       </c>
       <c r="P12">
-        <v>0.1454457116119657</v>
+        <v>0.09707610873382155</v>
       </c>
       <c r="Q12">
-        <v>208.5077461026972</v>
+        <v>61.38516049949391</v>
       </c>
       <c r="R12">
-        <v>208.5077461026972</v>
+        <v>552.4664444954451</v>
       </c>
       <c r="S12">
-        <v>0.0285488587642158</v>
+        <v>0.007251861451612451</v>
       </c>
       <c r="T12">
-        <v>0.0285488587642158</v>
+        <v>0.009234280116013408</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H13">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J13">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.64236900212878</v>
+        <v>1.93936</v>
       </c>
       <c r="N13">
-        <v>1.64236900212878</v>
+        <v>3.87872</v>
       </c>
       <c r="O13">
-        <v>0.1635481280485115</v>
+        <v>0.1692591130400411</v>
       </c>
       <c r="P13">
-        <v>0.1635481280485115</v>
+        <v>0.1276015244729198</v>
       </c>
       <c r="Q13">
-        <v>234.4589687847833</v>
+        <v>121.0314282563733</v>
       </c>
       <c r="R13">
-        <v>234.4589687847833</v>
+        <v>726.18856953824</v>
       </c>
       <c r="S13">
-        <v>0.0321020974565792</v>
+        <v>0.0142982952535121</v>
       </c>
       <c r="T13">
-        <v>0.0321020974565792</v>
+        <v>0.01213798364584381</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H14">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I14">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J14">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.40399773940331</v>
+        <v>2.0373175</v>
       </c>
       <c r="N14">
-        <v>4.40399773940331</v>
+        <v>4.074635</v>
       </c>
       <c r="O14">
-        <v>0.4385528375631207</v>
+        <v>0.1778084280540766</v>
       </c>
       <c r="P14">
-        <v>0.4385528375631207</v>
+        <v>0.1340467055293281</v>
       </c>
       <c r="Q14">
-        <v>628.6996205923598</v>
+        <v>291.0554795063483</v>
       </c>
       <c r="R14">
-        <v>628.6996205923598</v>
+        <v>1746.33287703809</v>
       </c>
       <c r="S14">
-        <v>0.08608148622242079</v>
+        <v>0.03438443420099988</v>
       </c>
       <c r="T14">
-        <v>0.08608148622242079</v>
+        <v>0.02918933289622855</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H15">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I15">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J15">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.854614622392657</v>
+        <v>0.09454</v>
       </c>
       <c r="N15">
-        <v>0.854614622392657</v>
+        <v>0.28362</v>
       </c>
       <c r="O15">
-        <v>0.08510305632536833</v>
+        <v>0.008251050112823554</v>
       </c>
       <c r="P15">
-        <v>0.08510305632536833</v>
+        <v>0.009330486441663618</v>
       </c>
       <c r="Q15">
-        <v>122.0018539164245</v>
+        <v>13.50618400545333</v>
       </c>
       <c r="R15">
-        <v>122.0018539164245</v>
+        <v>121.55565604908</v>
       </c>
       <c r="S15">
-        <v>0.01670448106382095</v>
+        <v>0.001595580663967462</v>
       </c>
       <c r="T15">
-        <v>0.01670448106382095</v>
+        <v>0.002031759555402715</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H16">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I16">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J16">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.68055051070743</v>
+        <v>1.802966333333333</v>
       </c>
       <c r="N16">
-        <v>1.68055051070743</v>
+        <v>5.408899</v>
       </c>
       <c r="O16">
-        <v>0.1673502664510339</v>
+        <v>0.1573552524652747</v>
       </c>
       <c r="P16">
-        <v>0.1673502664510339</v>
+        <v>0.1779411141098227</v>
       </c>
       <c r="Q16">
-        <v>239.909630065162</v>
+        <v>257.5755770429184</v>
       </c>
       <c r="R16">
-        <v>239.909630065162</v>
+        <v>2318.180193386266</v>
       </c>
       <c r="S16">
-        <v>0.03284840142836771</v>
+        <v>0.03042921746616226</v>
       </c>
       <c r="T16">
-        <v>0.03284840142836771</v>
+        <v>0.03874755739178545</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H17">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I17">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J17">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.46058246642358</v>
+        <v>4.60014</v>
       </c>
       <c r="N17">
-        <v>1.46058246642358</v>
+        <v>13.80042</v>
       </c>
       <c r="O17">
-        <v>0.1454457116119657</v>
+        <v>0.4014807030463734</v>
       </c>
       <c r="P17">
-        <v>0.1454457116119657</v>
+        <v>0.4540040607124442</v>
       </c>
       <c r="Q17">
-        <v>205.5835109465714</v>
+        <v>657.1857128289199</v>
       </c>
       <c r="R17">
-        <v>205.5835109465714</v>
+        <v>5914.671415460279</v>
       </c>
       <c r="S17">
-        <v>0.02814847279282617</v>
+        <v>0.07763797795158958</v>
       </c>
       <c r="T17">
-        <v>0.02814847279282617</v>
+        <v>0.09886162895272101</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H18">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I18">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J18">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.64236900212878</v>
+        <v>0.9836116666666669</v>
       </c>
       <c r="N18">
-        <v>1.64236900212878</v>
+        <v>2.950835000000001</v>
       </c>
       <c r="O18">
-        <v>0.1635481280485115</v>
+        <v>0.08584545328141067</v>
       </c>
       <c r="P18">
-        <v>0.1635481280485115</v>
+        <v>0.09707610873382155</v>
       </c>
       <c r="Q18">
-        <v>231.1707784321246</v>
+        <v>140.5208394320989</v>
       </c>
       <c r="R18">
-        <v>231.1707784321246</v>
+        <v>1264.68755488889</v>
       </c>
       <c r="S18">
-        <v>0.03165187877778887</v>
+        <v>0.0166007166933165</v>
       </c>
       <c r="T18">
-        <v>0.03165187877778887</v>
+        <v>0.02113880265026011</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H19">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I19">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J19">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.40399773940331</v>
+        <v>1.93936</v>
       </c>
       <c r="N19">
-        <v>4.40399773940331</v>
+        <v>3.87872</v>
       </c>
       <c r="O19">
-        <v>0.4385528375631207</v>
+        <v>0.1692591130400411</v>
       </c>
       <c r="P19">
-        <v>0.4385528375631207</v>
+        <v>0.1276015244729198</v>
       </c>
       <c r="Q19">
-        <v>619.8823676722997</v>
+        <v>277.0610642354133</v>
       </c>
       <c r="R19">
-        <v>619.8823676722997</v>
+        <v>1662.36638541248</v>
       </c>
       <c r="S19">
-        <v>0.08487422887583193</v>
+        <v>0.03273117533818422</v>
       </c>
       <c r="T19">
-        <v>0.08487422887583193</v>
+        <v>0.02778586285428256</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H20">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I20">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J20">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.854614622392657</v>
+        <v>2.0373175</v>
       </c>
       <c r="N20">
-        <v>0.854614622392657</v>
+        <v>4.074635</v>
       </c>
       <c r="O20">
-        <v>0.08510305632536833</v>
+        <v>0.1778084280540766</v>
       </c>
       <c r="P20">
-        <v>0.08510305632536833</v>
+        <v>0.1340467055293281</v>
       </c>
       <c r="Q20">
-        <v>120.290828225517</v>
+        <v>288.5184698222291</v>
       </c>
       <c r="R20">
-        <v>120.290828225517</v>
+        <v>1731.110818933375</v>
       </c>
       <c r="S20">
-        <v>0.0164702076053778</v>
+        <v>0.03408471937446973</v>
       </c>
       <c r="T20">
-        <v>0.0164702076053778</v>
+        <v>0.02893490160925773</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H21">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I21">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J21">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.68055051070743</v>
+        <v>0.09454</v>
       </c>
       <c r="N21">
-        <v>1.68055051070743</v>
+        <v>0.28362</v>
       </c>
       <c r="O21">
-        <v>0.1673502664510339</v>
+        <v>0.008251050112823554</v>
       </c>
       <c r="P21">
-        <v>0.1673502664510339</v>
+        <v>0.009330486441663618</v>
       </c>
       <c r="Q21">
-        <v>236.5449964357516</v>
+        <v>13.38845621116667</v>
       </c>
       <c r="R21">
-        <v>236.5449964357516</v>
+        <v>120.4961059005</v>
       </c>
       <c r="S21">
-        <v>0.03238771614412864</v>
+        <v>0.001581672650267996</v>
       </c>
       <c r="T21">
-        <v>0.03238771614412864</v>
+        <v>0.002014049551534721</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>137.199828146352</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H22">
-        <v>137.199828146352</v>
+        <v>424.850525</v>
       </c>
       <c r="I22">
-        <v>0.1886449951977736</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J22">
-        <v>0.1886449951977736</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.46058246642358</v>
+        <v>1.802966333333333</v>
       </c>
       <c r="N22">
-        <v>1.46058246642358</v>
+        <v>5.408899</v>
       </c>
       <c r="O22">
-        <v>0.1454457116119657</v>
+        <v>0.1573552524652747</v>
       </c>
       <c r="P22">
-        <v>0.1454457116119657</v>
+        <v>0.1779411141098227</v>
       </c>
       <c r="Q22">
-        <v>200.3916633868901</v>
+        <v>255.3303977579972</v>
       </c>
       <c r="R22">
-        <v>200.3916633868901</v>
+        <v>2297.973579821975</v>
       </c>
       <c r="S22">
-        <v>0.02743760556857602</v>
+        <v>0.03016397862055537</v>
       </c>
       <c r="T22">
-        <v>0.02743760556857602</v>
+        <v>0.03840981103323673</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>137.199828146352</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H23">
-        <v>137.199828146352</v>
+        <v>424.850525</v>
       </c>
       <c r="I23">
-        <v>0.1886449951977736</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J23">
-        <v>0.1886449951977736</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.64236900212878</v>
+        <v>4.60014</v>
       </c>
       <c r="N23">
-        <v>1.64236900212878</v>
+        <v>13.80042</v>
       </c>
       <c r="O23">
-        <v>0.1635481280485115</v>
+        <v>0.4014807030463734</v>
       </c>
       <c r="P23">
-        <v>0.1635481280485115</v>
+        <v>0.4540040607124442</v>
       </c>
       <c r="Q23">
-        <v>225.3327448449642</v>
+        <v>651.4572980244999</v>
       </c>
       <c r="R23">
-        <v>225.3327448449642</v>
+        <v>5863.115682220499</v>
       </c>
       <c r="S23">
-        <v>0.0308525358303163</v>
+        <v>0.07696123995561477</v>
       </c>
       <c r="T23">
-        <v>0.0308525358303163</v>
+        <v>0.09799989320919114</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>137.199828146352</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H24">
-        <v>137.199828146352</v>
+        <v>424.850525</v>
       </c>
       <c r="I24">
-        <v>0.1886449951977736</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J24">
-        <v>0.1886449951977736</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.40399773940331</v>
+        <v>0.9836116666666669</v>
       </c>
       <c r="N24">
-        <v>4.40399773940331</v>
+        <v>2.950835000000001</v>
       </c>
       <c r="O24">
-        <v>0.4385528375631207</v>
+        <v>0.08584545328141067</v>
       </c>
       <c r="P24">
-        <v>0.4385528375631207</v>
+        <v>0.09707610873382155</v>
       </c>
       <c r="Q24">
-        <v>604.2277330030568</v>
+        <v>139.2959776598195</v>
       </c>
       <c r="R24">
-        <v>604.2277330030568</v>
+        <v>1253.663798938375</v>
       </c>
       <c r="S24">
-        <v>0.08273079793606489</v>
+        <v>0.01645601514333814</v>
       </c>
       <c r="T24">
-        <v>0.08273079793606489</v>
+        <v>0.02095454449052591</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>137.199828146352</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H25">
-        <v>137.199828146352</v>
+        <v>424.850525</v>
       </c>
       <c r="I25">
-        <v>0.1886449951977736</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J25">
-        <v>0.1886449951977736</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.854614622392657</v>
+        <v>1.93936</v>
       </c>
       <c r="N25">
-        <v>0.854614622392657</v>
+        <v>3.87872</v>
       </c>
       <c r="O25">
-        <v>0.08510305632536833</v>
+        <v>0.1692591130400411</v>
       </c>
       <c r="P25">
-        <v>0.08510305632536833</v>
+        <v>0.1276015244729198</v>
       </c>
       <c r="Q25">
-        <v>117.252979323632</v>
+        <v>274.6460380546666</v>
       </c>
       <c r="R25">
-        <v>117.252979323632</v>
+        <v>1647.876228328</v>
       </c>
       <c r="S25">
-        <v>0.01605426565181496</v>
+        <v>0.03244587128224816</v>
       </c>
       <c r="T25">
-        <v>0.01605426565181496</v>
+        <v>0.02754366503253914</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H26">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I26">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J26">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.68055051070743</v>
+        <v>2.0373175</v>
       </c>
       <c r="N26">
-        <v>1.68055051070743</v>
+        <v>4.074635</v>
       </c>
       <c r="O26">
-        <v>0.1673502664510339</v>
+        <v>0.1778084280540766</v>
       </c>
       <c r="P26">
-        <v>0.1673502664510339</v>
+        <v>0.1340467055293281</v>
       </c>
       <c r="Q26">
-        <v>230.5712412603235</v>
+        <v>292.9333212252949</v>
       </c>
       <c r="R26">
-        <v>230.5712412603235</v>
+        <v>1757.59992735177</v>
       </c>
       <c r="S26">
-        <v>0.03156979021100143</v>
+        <v>0.03460627687214466</v>
       </c>
       <c r="T26">
-        <v>0.03156979021100143</v>
+        <v>0.02937765763470702</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>52.9449598765086</v>
+        <v>143.783834</v>
       </c>
       <c r="H27">
-        <v>52.9449598765086</v>
+        <v>431.351502</v>
       </c>
       <c r="I27">
-        <v>0.07279747968048636</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J27">
-        <v>0.07279747968048636</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>1.46058246642358</v>
+        <v>0.09454</v>
       </c>
       <c r="N27">
-        <v>1.46058246642358</v>
+        <v>0.28362</v>
       </c>
       <c r="O27">
-        <v>0.1454457116119657</v>
+        <v>0.008251050112823554</v>
       </c>
       <c r="P27">
-        <v>0.1454457116119657</v>
+        <v>0.009330486441663618</v>
       </c>
       <c r="Q27">
-        <v>77.33048008112841</v>
+        <v>13.59332366636</v>
       </c>
       <c r="R27">
-        <v>77.33048008112841</v>
+        <v>122.33991299724</v>
       </c>
       <c r="S27">
-        <v>0.01058808123568595</v>
+        <v>0.001605875085985644</v>
       </c>
       <c r="T27">
-        <v>0.01058808123568595</v>
+        <v>0.002044868131343202</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>52.9449598765086</v>
+        <v>143.783834</v>
       </c>
       <c r="H28">
-        <v>52.9449598765086</v>
+        <v>431.351502</v>
       </c>
       <c r="I28">
-        <v>0.07279747968048636</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J28">
-        <v>0.07279747968048636</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.64236900212878</v>
+        <v>1.802966333333333</v>
       </c>
       <c r="N28">
-        <v>1.64236900212878</v>
+        <v>5.408899</v>
       </c>
       <c r="O28">
-        <v>0.1635481280485115</v>
+        <v>0.1573552524652747</v>
       </c>
       <c r="P28">
-        <v>0.1635481280485115</v>
+        <v>0.1779411141098227</v>
       </c>
       <c r="Q28">
-        <v>86.95516092012973</v>
+        <v>259.2374119795886</v>
       </c>
       <c r="R28">
-        <v>86.95516092012973</v>
+        <v>2333.136707816298</v>
       </c>
       <c r="S28">
-        <v>0.01190589152839309</v>
+        <v>0.03062554173440752</v>
       </c>
       <c r="T28">
-        <v>0.01190589152839309</v>
+        <v>0.03899755021068371</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>52.9449598765086</v>
+        <v>143.783834</v>
       </c>
       <c r="H29">
-        <v>52.9449598765086</v>
+        <v>431.351502</v>
       </c>
       <c r="I29">
-        <v>0.07279747968048636</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J29">
-        <v>0.07279747968048636</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.40399773940331</v>
+        <v>4.60014</v>
       </c>
       <c r="N29">
-        <v>4.40399773940331</v>
+        <v>13.80042</v>
       </c>
       <c r="O29">
-        <v>0.4385528375631207</v>
+        <v>0.4014807030463734</v>
       </c>
       <c r="P29">
-        <v>0.4385528375631207</v>
+        <v>0.4540040607124442</v>
       </c>
       <c r="Q29">
-        <v>233.1694836089428</v>
+        <v>661.4257661367599</v>
       </c>
       <c r="R29">
-        <v>233.1694836089428</v>
+        <v>5952.831895230839</v>
       </c>
       <c r="S29">
-        <v>0.03192554128132091</v>
+        <v>0.07813888531887031</v>
       </c>
       <c r="T29">
-        <v>0.03192554128132091</v>
+        <v>0.09949946779899635</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>52.9449598765086</v>
+        <v>143.783834</v>
       </c>
       <c r="H30">
-        <v>52.9449598765086</v>
+        <v>431.351502</v>
       </c>
       <c r="I30">
-        <v>0.07279747968048636</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J30">
-        <v>0.07279747968048636</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.854614622392657</v>
+        <v>0.9836116666666669</v>
       </c>
       <c r="N30">
-        <v>0.854614622392657</v>
+        <v>2.950835000000001</v>
       </c>
       <c r="O30">
-        <v>0.08510305632536833</v>
+        <v>0.08584545328141067</v>
       </c>
       <c r="P30">
-        <v>0.08510305632536833</v>
+        <v>0.09707610873382155</v>
       </c>
       <c r="Q30">
-        <v>45.24753689245677</v>
+        <v>141.4274566004634</v>
       </c>
       <c r="R30">
-        <v>45.24753689245677</v>
+        <v>1272.84710940417</v>
       </c>
       <c r="S30">
-        <v>0.006195288013593287</v>
+        <v>0.01670782176628745</v>
       </c>
       <c r="T30">
-        <v>0.006195288013593287</v>
+        <v>0.02127518670175629</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>52.9449598765086</v>
+        <v>143.783834</v>
       </c>
       <c r="H31">
-        <v>52.9449598765086</v>
+        <v>431.351502</v>
       </c>
       <c r="I31">
-        <v>0.07279747968048636</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J31">
-        <v>0.07279747968048636</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.68055051070743</v>
+        <v>1.93936</v>
       </c>
       <c r="N31">
-        <v>1.68055051070743</v>
+        <v>3.87872</v>
       </c>
       <c r="O31">
-        <v>0.1673502664510339</v>
+        <v>0.1692591130400411</v>
       </c>
       <c r="P31">
-        <v>0.1673502664510339</v>
+        <v>0.1276015244729198</v>
       </c>
       <c r="Q31">
-        <v>88.97667935985091</v>
+        <v>278.84861630624</v>
       </c>
       <c r="R31">
-        <v>88.97667935985091</v>
+        <v>1673.09169783744</v>
       </c>
       <c r="S31">
-        <v>0.01218267762149312</v>
+        <v>0.03294235145713051</v>
       </c>
       <c r="T31">
-        <v>0.01218267762149312</v>
+        <v>0.02796513263663882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H32">
+        <v>106.034229</v>
+      </c>
+      <c r="I32">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J32">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.0373175</v>
+      </c>
+      <c r="N32">
+        <v>4.074635</v>
+      </c>
+      <c r="O32">
+        <v>0.1778084280540766</v>
+      </c>
+      <c r="P32">
+        <v>0.1340467055293281</v>
+      </c>
+      <c r="Q32">
+        <v>108.0126951703538</v>
+      </c>
+      <c r="R32">
+        <v>432.050780681415</v>
+      </c>
+      <c r="S32">
+        <v>0.01276030060061687</v>
+      </c>
+      <c r="T32">
+        <v>0.007221575125342031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H33">
+        <v>106.034229</v>
+      </c>
+      <c r="I33">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J33">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.09454</v>
+      </c>
+      <c r="N33">
+        <v>0.28362</v>
+      </c>
+      <c r="O33">
+        <v>0.008251050112823554</v>
+      </c>
+      <c r="P33">
+        <v>0.009330486441663618</v>
+      </c>
+      <c r="Q33">
+        <v>5.01223800483</v>
+      </c>
+      <c r="R33">
+        <v>30.07342802898</v>
+      </c>
+      <c r="S33">
+        <v>0.0005921309853679254</v>
+      </c>
+      <c r="T33">
+        <v>0.0005026666528534474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H34">
+        <v>106.034229</v>
+      </c>
+      <c r="I34">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J34">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.802966333333333</v>
+      </c>
+      <c r="N34">
+        <v>5.408899</v>
+      </c>
+      <c r="O34">
+        <v>0.1573552524652747</v>
+      </c>
+      <c r="P34">
+        <v>0.1779411141098227</v>
+      </c>
+      <c r="Q34">
+        <v>95.5880725339785</v>
+      </c>
+      <c r="R34">
+        <v>573.528435203871</v>
+      </c>
+      <c r="S34">
+        <v>0.01129249240048511</v>
+      </c>
+      <c r="T34">
+        <v>0.009586323799281994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H35">
+        <v>106.034229</v>
+      </c>
+      <c r="I35">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J35">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4.60014</v>
+      </c>
+      <c r="N35">
+        <v>13.80042</v>
+      </c>
+      <c r="O35">
+        <v>0.4014807030463734</v>
+      </c>
+      <c r="P35">
+        <v>0.4540040607124442</v>
+      </c>
+      <c r="Q35">
+        <v>243.88614909603</v>
+      </c>
+      <c r="R35">
+        <v>1463.31689457618</v>
+      </c>
+      <c r="S35">
+        <v>0.0288119889044892</v>
+      </c>
+      <c r="T35">
+        <v>0.0244588214137641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H36">
+        <v>106.034229</v>
+      </c>
+      <c r="I36">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J36">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.9836116666666669</v>
+      </c>
+      <c r="N36">
+        <v>2.950835000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.08584545328141067</v>
+      </c>
+      <c r="P36">
+        <v>0.09707610873382155</v>
+      </c>
+      <c r="Q36">
+        <v>52.14825235520252</v>
+      </c>
+      <c r="R36">
+        <v>312.8895141312151</v>
+      </c>
+      <c r="S36">
+        <v>0.006160640421014607</v>
+      </c>
+      <c r="T36">
+        <v>0.005229836938765965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H37">
+        <v>106.034229</v>
+      </c>
+      <c r="I37">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J37">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.93936</v>
+      </c>
+      <c r="N37">
+        <v>3.87872</v>
+      </c>
+      <c r="O37">
+        <v>0.1692591130400411</v>
+      </c>
+      <c r="P37">
+        <v>0.1276015244729198</v>
+      </c>
+      <c r="Q37">
+        <v>102.81927117672</v>
+      </c>
+      <c r="R37">
+        <v>411.27708470688</v>
+      </c>
+      <c r="S37">
+        <v>0.0121467648379854</v>
+      </c>
+      <c r="T37">
+        <v>0.006874350186008476</v>
       </c>
     </row>
   </sheetData>
